--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T05:45:37+00:00</t>
+    <t>2024-07-24T06:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T06:08:37+00:00</t>
+    <t>2024-07-24T06:28:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T06:28:07+00:00</t>
+    <t>2024-07-24T07:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T07:09:47+00:00</t>
+    <t>2024-07-24T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T07:44:53+00:00</t>
+    <t>2024-07-24T08:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-24T08:06:37+00:00</t>
+    <t>2024-10-18T00:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T00:35:41+00:00</t>
+    <t>2024-10-18T07:24:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T07:24:41+00:00</t>
+    <t>2024-10-18T07:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T07:38:40+00:00</t>
+    <t>2024-10-18T09:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T09:57:11+00:00</t>
+    <t>2024-10-18T10:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T10:38:50+00:00</t>
+    <t>2024-10-18T10:56:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T10:56:46+00:00</t>
+    <t>2024-10-18T11:24:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T11:24:24+00:00</t>
+    <t>2024-10-21T00:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T00:14:58+00:00</t>
+    <t>2024-10-21T00:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T00:22:11+00:00</t>
+    <t>2024-10-21T00:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T00:44:08+00:00</t>
+    <t>2024-10-21T00:53:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T00:53:19+00:00</t>
+    <t>2024-10-21T01:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T01:16:37+00:00</t>
+    <t>2024-10-21T01:31:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T01:17:06+00:00</t>
+    <t>2024-10-23T01:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T01:47:01+00:00</t>
+    <t>2024-10-23T01:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
